--- a/cm/ComponentList.xlsx
+++ b/cm/ComponentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB7E0E-DEAF-4A71-A0BC-14BB1430F5EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349149B-0520-478D-9689-3580B634BD1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t>EGRVlv</t>
   </si>
@@ -47,9 +47,6 @@
     <t>RailP_DD</t>
   </si>
   <si>
-    <t>RailP_DDsync</t>
-  </si>
-  <si>
     <t>RailP_VD</t>
   </si>
   <si>
@@ -274,10 +271,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>InjCtl_qCoSync</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Driver</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -318,7 +311,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RailP_VDSync</t>
+    <t>InjCtl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngLim</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -774,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C746CC2-179D-490F-BC23-7874DE22C827}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -805,51 +806,51 @@
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -860,18 +861,18 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -882,15 +883,15 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -904,15 +905,15 @@
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
@@ -926,15 +927,15 @@
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
@@ -948,15 +949,15 @@
       <c r="J7" s="3"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
@@ -970,15 +971,15 @@
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
@@ -992,21 +993,21 @@
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1016,18 +1017,18 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1038,21 +1039,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1062,21 +1063,21 @@
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1086,21 +1087,21 @@
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1110,21 +1111,21 @@
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1134,21 +1135,21 @@
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1158,21 +1159,21 @@
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1182,20 +1183,22 @@
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1204,21 +1207,21 @@
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1228,21 +1231,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1252,15 +1255,15 @@
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>2</v>
@@ -1305,16 +1308,16 @@
     </row>
     <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1323,22 +1326,22 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5" t="s">
-        <v>87</v>
+      <c r="L23" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1347,21 +1350,23 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5" t="s">
-        <v>6</v>
+      <c r="L24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1370,21 +1375,21 @@
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1394,18 +1399,18 @@
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1415,19 +1420,19 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3" t="s">
-        <v>43</v>
+      <c r="L27" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1437,19 +1442,19 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3" t="s">
-        <v>76</v>
+      <c r="L28" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1459,19 +1464,19 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3" t="s">
-        <v>44</v>
+      <c r="L29" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1482,18 +1487,18 @@
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
       <c r="L30" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1504,18 +1509,18 @@
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
       <c r="L31" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1526,18 +1531,18 @@
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
       <c r="L32" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1547,19 +1552,19 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="5" t="s">
-        <v>13</v>
+      <c r="L33" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1569,21 +1574,23 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="5" t="s">
-        <v>14</v>
+      <c r="L34" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1591,21 +1598,23 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="5" t="s">
-        <v>15</v>
+      <c r="L35" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1614,20 +1623,22 @@
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1636,23 +1647,25 @@
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1660,23 +1673,25 @@
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
       <c r="L38" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1684,23 +1699,25 @@
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
       <c r="L39" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1708,90 +1725,12 @@
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
       <c r="L40" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{51E19365-0EFD-4EB8-9716-A9F8D7834858}">
-    <sortState ref="A3:L43">
+    <sortState ref="A3:L40">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>

--- a/cm/ComponentList.xlsx
+++ b/cm/ComponentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795B57B-3586-48A3-9235-9221C0D0F867}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F270F-00ED-46D3-A687-641AE0AF2C14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,11 +232,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -871,7 +871,7 @@
         <v>45</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -896,7 +896,7 @@
         <v>46</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>47</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -946,7 +946,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -971,7 +971,7 @@
         <v>49</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1156,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1306,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1331,7 +1331,7 @@
         <v>53</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/cm/ComponentList.xlsx
+++ b/cm/ComponentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F270F-00ED-46D3-A687-641AE0AF2C14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332BFCB-589F-49A8-8D1B-98400623F4FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/cm/ComponentList.xlsx
+++ b/cm/ComponentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332BFCB-589F-49A8-8D1B-98400623F4FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696486E7-E7E9-4044-A06F-3639BAE4C9D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>EGRVlv</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_GlobalData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型不需要集成，但要生成代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C746CC2-179D-490F-BC23-7874DE22C827}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1159,7 +1171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,14 +1369,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A2:L2" xr:uid="{51E19365-0EFD-4EB8-9716-A9F8D7834858}">
